--- a/test data/rerate.xlsx
+++ b/test data/rerate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.ds.fedex.com\vdi-oz\U1\3715501\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5194105\Documents\Eclipse Projects\Master GUI\test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TEST_INPUT_NBR</t>
   </si>
@@ -68,573 +68,24 @@
     <t>COMMENTS</t>
   </si>
   <si>
-    <t>Express International</t>
-  </si>
-  <si>
-    <t>Date Range</t>
-  </si>
-  <si>
-    <t>Express National</t>
-  </si>
-  <si>
-    <t>L3C1-194881-1-99</t>
-  </si>
-  <si>
     <t>Express Domestic</t>
   </si>
   <si>
     <t>Tracking Number</t>
   </si>
   <si>
-    <t>CE Level</t>
-  </si>
-  <si>
     <t>Express 9-digit</t>
   </si>
   <si>
-    <t>L3C1-26314-1-168</t>
-  </si>
-  <si>
-    <t>L3C1-201467-1-145</t>
-  </si>
-  <si>
-    <t>Ground Domestic</t>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>L3C1-196547-1-119</t>
-  </si>
-  <si>
-    <t>L3C1-94772-1-215</t>
-  </si>
-  <si>
-    <t>L3C1-126628-1-73</t>
-  </si>
-  <si>
-    <t>L3C1-198736-1-140</t>
-  </si>
-  <si>
-    <t>L3C1-194873-1-98</t>
-  </si>
-  <si>
-    <t>L3C1-103314-1-35</t>
-  </si>
-  <si>
-    <t>L3C1-105264-1-39</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>L3C1-112166-1-56</t>
-  </si>
-  <si>
-    <t>L3C1-105292-1-41</t>
-  </si>
-  <si>
-    <t>L3C1-126570-1-69</t>
-  </si>
-  <si>
-    <t>L3C1-125217-1-67</t>
-  </si>
-  <si>
-    <t>L3C1-52537-1-184</t>
-  </si>
-  <si>
-    <t>L3C1-52539-1-185</t>
-  </si>
-  <si>
-    <t>L3C1-106174-1-53</t>
-  </si>
-  <si>
-    <t>L3C1-105963-1-46</t>
-  </si>
-  <si>
-    <t>L3C1-126577-1-70</t>
-  </si>
-  <si>
-    <t>L3C1-112087-1-55</t>
-  </si>
-  <si>
-    <t>L3C1-12464-1-64</t>
-  </si>
-  <si>
-    <t>L3C1-71041-1-186</t>
-  </si>
-  <si>
-    <t>L3C1-112339-1-57</t>
-  </si>
-  <si>
-    <t>L3C1-99124-1-220</t>
-  </si>
-  <si>
-    <t>L3C1-71095-1-188</t>
-  </si>
-  <si>
-    <t>L3C1-125355-1-68</t>
-  </si>
-  <si>
-    <t>L3C1-126637-1-75</t>
-  </si>
-  <si>
-    <t>L3C1-196605-1-122</t>
-  </si>
-  <si>
-    <t>L3C1-99121-1-219</t>
-  </si>
-  <si>
-    <t>L3C1-105153-1-38</t>
-  </si>
-  <si>
-    <t>L3C1-100365-1-34</t>
-  </si>
-  <si>
-    <t>L3C1-106168-1-52</t>
-  </si>
-  <si>
-    <t>L3C1-71096-1-189</t>
-  </si>
-  <si>
-    <t>L3C1-126644-1-77</t>
-  </si>
-  <si>
-    <t>L3C1-196653-1-128</t>
-  </si>
-  <si>
-    <t>194881</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>41123</t>
-  </si>
-  <si>
-    <t>795006860667</t>
-  </si>
-  <si>
-    <t>594914070</t>
-  </si>
-  <si>
-    <t>26314</t>
-  </si>
-  <si>
-    <t>410657724</t>
-  </si>
-  <si>
-    <t>804831539907</t>
-  </si>
-  <si>
-    <t>421427169</t>
-  </si>
-  <si>
-    <t>201467</t>
-  </si>
-  <si>
-    <t>23123</t>
-  </si>
-  <si>
-    <t>795006277060</t>
-  </si>
-  <si>
-    <t>737215276</t>
-  </si>
-  <si>
-    <t>196547</t>
-  </si>
-  <si>
-    <t>564241262600</t>
-  </si>
-  <si>
-    <t>594914435</t>
-  </si>
-  <si>
-    <t>94772</t>
-  </si>
-  <si>
-    <t>128599983</t>
-  </si>
-  <si>
-    <t>237941472074</t>
-  </si>
-  <si>
-    <t>421425096</t>
-  </si>
-  <si>
-    <t>126628</t>
-  </si>
-  <si>
-    <t>700229289</t>
-  </si>
-  <si>
-    <t>566170715097</t>
-  </si>
-  <si>
-    <t>421429594</t>
-  </si>
-  <si>
-    <t>198736</t>
-  </si>
-  <si>
-    <t>605811540</t>
-  </si>
-  <si>
-    <t>795006512119</t>
-  </si>
-  <si>
-    <t>421426428</t>
-  </si>
-  <si>
-    <t>194873</t>
-  </si>
-  <si>
-    <t>795006860586</t>
-  </si>
-  <si>
-    <t>594914067</t>
-  </si>
-  <si>
-    <t>103314</t>
-  </si>
-  <si>
-    <t>451143280</t>
-  </si>
-  <si>
-    <t>566134964081</t>
-  </si>
-  <si>
-    <t>737215340</t>
-  </si>
-  <si>
-    <t>105264</t>
-  </si>
-  <si>
-    <t>450312657</t>
-  </si>
-  <si>
-    <t>345931539906</t>
-  </si>
-  <si>
-    <t>421427181</t>
-  </si>
-  <si>
-    <t>450414263</t>
-  </si>
-  <si>
-    <t>421428135</t>
-  </si>
-  <si>
-    <t>112166</t>
-  </si>
-  <si>
-    <t>700075591</t>
-  </si>
-  <si>
-    <t>321941472078</t>
-  </si>
-  <si>
-    <t>421426737</t>
-  </si>
-  <si>
-    <t>105292</t>
-  </si>
-  <si>
-    <t>610211682</t>
-  </si>
-  <si>
-    <t>795006681008</t>
-  </si>
-  <si>
-    <t>421426525</t>
-  </si>
-  <si>
-    <t>126570</t>
-  </si>
-  <si>
-    <t>600707540</t>
-  </si>
-  <si>
-    <t>795006686890</t>
-  </si>
-  <si>
-    <t>421428195</t>
-  </si>
-  <si>
     <t>450312851</t>
   </si>
   <si>
-    <t>421426245</t>
-  </si>
-  <si>
-    <t>125217</t>
-  </si>
-  <si>
-    <t>410016885</t>
-  </si>
-  <si>
-    <t>575698994820</t>
-  </si>
-  <si>
-    <t>421428113</t>
-  </si>
-  <si>
-    <t>52537</t>
-  </si>
-  <si>
-    <t>240198994823</t>
-  </si>
-  <si>
-    <t>52539</t>
-  </si>
-  <si>
-    <t>909098994823</t>
-  </si>
-  <si>
-    <t>106174</t>
-  </si>
-  <si>
-    <t>710204780</t>
-  </si>
-  <si>
-    <t>300231539901</t>
-  </si>
-  <si>
-    <t>421427831</t>
-  </si>
-  <si>
-    <t>105963</t>
-  </si>
-  <si>
-    <t>450312398</t>
-  </si>
-  <si>
-    <t>393841472074</t>
-  </si>
-  <si>
-    <t>421429830</t>
-  </si>
-  <si>
-    <t>126577</t>
-  </si>
-  <si>
-    <t>700136000</t>
-  </si>
-  <si>
-    <t>566263465083</t>
-  </si>
-  <si>
-    <t>421425813</t>
-  </si>
-  <si>
-    <t>450392014</t>
-  </si>
-  <si>
-    <t>421425322</t>
-  </si>
-  <si>
-    <t>112087</t>
-  </si>
-  <si>
-    <t>700073459</t>
-  </si>
-  <si>
-    <t>566921851080</t>
-  </si>
-  <si>
-    <t>421429586</t>
-  </si>
-  <si>
-    <t>12464</t>
-  </si>
-  <si>
-    <t>700153703</t>
-  </si>
-  <si>
-    <t>763831539903</t>
-  </si>
-  <si>
-    <t>421425816</t>
-  </si>
-  <si>
-    <t>71041</t>
-  </si>
-  <si>
-    <t>701220552</t>
-  </si>
-  <si>
-    <t>795006756319</t>
-  </si>
-  <si>
-    <t>421427684</t>
-  </si>
-  <si>
-    <t>112339</t>
-  </si>
-  <si>
-    <t>343198994825</t>
-  </si>
-  <si>
-    <t>99124</t>
-  </si>
-  <si>
-    <t>451143441</t>
-  </si>
-  <si>
-    <t>564603112084</t>
-  </si>
-  <si>
-    <t>421427202</t>
-  </si>
-  <si>
-    <t>71095</t>
-  </si>
-  <si>
-    <t>564535112444</t>
-  </si>
-  <si>
-    <t>125355</t>
-  </si>
-  <si>
-    <t>450421383</t>
-  </si>
-  <si>
-    <t>463551472077</t>
-  </si>
-  <si>
-    <t>421429847</t>
-  </si>
-  <si>
-    <t>126637</t>
-  </si>
-  <si>
-    <t>835551472078</t>
-  </si>
-  <si>
-    <t>196605</t>
-  </si>
-  <si>
-    <t>795007097588</t>
-  </si>
-  <si>
-    <t>594914376</t>
-  </si>
-  <si>
-    <t>99121</t>
-  </si>
-  <si>
-    <t>451143425</t>
-  </si>
-  <si>
-    <t>566165215083</t>
-  </si>
-  <si>
-    <t>421425344</t>
-  </si>
-  <si>
     <t>105153</t>
   </si>
   <si>
-    <t>463588994820</t>
-  </si>
-  <si>
-    <t>100365</t>
-  </si>
-  <si>
-    <t>716098994820</t>
-  </si>
-  <si>
-    <t>106168</t>
-  </si>
-  <si>
-    <t>710204942</t>
-  </si>
-  <si>
-    <t>566180965087</t>
-  </si>
-  <si>
-    <t>421426903</t>
-  </si>
-  <si>
-    <t>71096</t>
-  </si>
-  <si>
-    <t>566365215104</t>
-  </si>
-  <si>
-    <t>126644</t>
-  </si>
-  <si>
-    <t>246551472079</t>
-  </si>
-  <si>
-    <t>196653</t>
-  </si>
-  <si>
-    <t>795006748880</t>
-  </si>
-  <si>
-    <t>421429355</t>
-  </si>
-  <si>
-    <t>45145</t>
-  </si>
-  <si>
-    <t>Processed</t>
-  </si>
-  <si>
-    <t>45147</t>
-  </si>
-  <si>
-    <t>45149</t>
-  </si>
-  <si>
-    <t>45150</t>
-  </si>
-  <si>
-    <t>45154</t>
-  </si>
-  <si>
-    <t>45155</t>
-  </si>
-  <si>
-    <t>45161</t>
-  </si>
-  <si>
-    <t>45162</t>
-  </si>
-  <si>
-    <t>45163</t>
-  </si>
-  <si>
-    <t>45171</t>
-  </si>
-  <si>
-    <t>45172</t>
-  </si>
-  <si>
-    <t>45179</t>
-  </si>
-  <si>
-    <t>45180</t>
-  </si>
-  <si>
-    <t>45182</t>
-  </si>
-  <si>
-    <t>45185</t>
-  </si>
-  <si>
-    <t>45189</t>
-  </si>
-  <si>
-    <t>45192</t>
-  </si>
-  <si>
-    <t>45194</t>
-  </si>
-  <si>
     <t>processed</t>
   </si>
   <si>
@@ -644,7 +95,13 @@
     <t>forget to take from last sheet</t>
   </si>
   <si>
-    <t>Not Processed</t>
+    <t>470009994827</t>
+  </si>
+  <si>
+    <t>421171989</t>
+  </si>
+  <si>
+    <t>L2C3-105153-1-38</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +458,7 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -1059,1434 +516,684 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>146</v>
-      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>151</v>
-      </c>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
-        <v>152</v>
-      </c>
+      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>153</v>
-      </c>
+      <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="I30" s="10"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
-        <v>155</v>
-      </c>
+      <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="1"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>158</v>
-      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
-        <v>163</v>
-      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="12" t="s">
-        <v>164</v>
-      </c>
+      <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>185</v>
-      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>168</v>
-      </c>
+      <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="I34" s="13"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14" t="s">
-        <v>172</v>
-      </c>
+      <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="I35" s="14"/>
       <c r="J35" s="14"/>
-      <c r="K35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>185</v>
-      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>174</v>
-      </c>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
-        <v>175</v>
-      </c>
+      <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="15" t="s">
-        <v>18</v>
-      </c>
+      <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
